--- a/output/job1-Chart.xlsx
+++ b/output/job1-Chart.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\git\MW_Hadoop\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="job1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="job1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,751 +24,729 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
-  <si>
-    <t xml:space="preserve">2012-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+  <si>
+    <t>2012-27</t>
+  </si>
+  <si>
+    <t>2012-28</t>
+  </si>
+  <si>
+    <t>2012-29</t>
+  </si>
+  <si>
+    <t>2012-30</t>
+  </si>
+  <si>
+    <t>2012-31</t>
+  </si>
+  <si>
+    <t>2012-32</t>
+  </si>
+  <si>
+    <t>2012-33</t>
+  </si>
+  <si>
+    <t>2012-34</t>
+  </si>
+  <si>
+    <t>2012-35</t>
+  </si>
+  <si>
+    <t>2012-36</t>
+  </si>
+  <si>
+    <t>2012-37</t>
+  </si>
+  <si>
+    <t>2012-38</t>
+  </si>
+  <si>
+    <t>2012-39</t>
+  </si>
+  <si>
+    <t>2012-40</t>
+  </si>
+  <si>
+    <t>2012-41</t>
+  </si>
+  <si>
+    <t>2012-42</t>
+  </si>
+  <si>
+    <t>2012-43</t>
+  </si>
+  <si>
+    <t>2012-44</t>
+  </si>
+  <si>
+    <t>2012-45</t>
+  </si>
+  <si>
+    <t>2012-46</t>
+  </si>
+  <si>
+    <t>2012-47</t>
+  </si>
+  <si>
+    <t>2012-48</t>
+  </si>
+  <si>
+    <t>2012-49</t>
+  </si>
+  <si>
+    <t>2012-50</t>
+  </si>
+  <si>
+    <t>2012-51</t>
+  </si>
+  <si>
+    <t>2012-52</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2013-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2013-15</t>
+  </si>
+  <si>
+    <t>2013-16</t>
+  </si>
+  <si>
+    <t>2013-17</t>
+  </si>
+  <si>
+    <t>2013-18</t>
+  </si>
+  <si>
+    <t>2013-19</t>
+  </si>
+  <si>
+    <t>2013-20</t>
+  </si>
+  <si>
+    <t>2013-21</t>
+  </si>
+  <si>
+    <t>2013-22</t>
+  </si>
+  <si>
+    <t>2013-23</t>
+  </si>
+  <si>
+    <t>2013-24</t>
+  </si>
+  <si>
+    <t>2013-25</t>
+  </si>
+  <si>
+    <t>2013-26</t>
+  </si>
+  <si>
+    <t>2013-27</t>
+  </si>
+  <si>
+    <t>2013-28</t>
+  </si>
+  <si>
+    <t>2013-29</t>
+  </si>
+  <si>
+    <t>2013-30</t>
+  </si>
+  <si>
+    <t>2013-31</t>
+  </si>
+  <si>
+    <t>2013-32</t>
+  </si>
+  <si>
+    <t>2013-33</t>
+  </si>
+  <si>
+    <t>2013-34</t>
+  </si>
+  <si>
+    <t>2013-35</t>
+  </si>
+  <si>
+    <t>2013-36</t>
+  </si>
+  <si>
+    <t>2013-37</t>
+  </si>
+  <si>
+    <t>2013-38</t>
+  </si>
+  <si>
+    <t>2013-39</t>
+  </si>
+  <si>
+    <t>2013-40</t>
+  </si>
+  <si>
+    <t>2013-41</t>
+  </si>
+  <si>
+    <t>2013-42</t>
+  </si>
+  <si>
+    <t>2013-43</t>
+  </si>
+  <si>
+    <t>2013-44</t>
+  </si>
+  <si>
+    <t>2013-45</t>
+  </si>
+  <si>
+    <t>2013-46</t>
+  </si>
+  <si>
+    <t>2013-47</t>
+  </si>
+  <si>
+    <t>2013-48</t>
+  </si>
+  <si>
+    <t>2013-49</t>
+  </si>
+  <si>
+    <t>2013-50</t>
+  </si>
+  <si>
+    <t>2013-51</t>
+  </si>
+  <si>
+    <t>2013-52</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2014-13</t>
+  </si>
+  <si>
+    <t>2014-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2014-16</t>
+  </si>
+  <si>
+    <t>2014-17</t>
+  </si>
+  <si>
+    <t>2014-18</t>
+  </si>
+  <si>
+    <t>2014-19</t>
+  </si>
+  <si>
+    <t>2014-20</t>
+  </si>
+  <si>
+    <t>2014-21</t>
+  </si>
+  <si>
+    <t>2014-22</t>
+  </si>
+  <si>
+    <t>2014-23</t>
+  </si>
+  <si>
+    <t>2014-24</t>
+  </si>
+  <si>
+    <t>2014-25</t>
+  </si>
+  <si>
+    <t>2014-26</t>
+  </si>
+  <si>
+    <t>2014-27</t>
+  </si>
+  <si>
+    <t>2014-28</t>
+  </si>
+  <si>
+    <t>2014-29</t>
+  </si>
+  <si>
+    <t>2014-30</t>
+  </si>
+  <si>
+    <t>2014-31</t>
+  </si>
+  <si>
+    <t>2014-32</t>
+  </si>
+  <si>
+    <t>2014-33</t>
+  </si>
+  <si>
+    <t>2014-34</t>
+  </si>
+  <si>
+    <t>2014-35</t>
+  </si>
+  <si>
+    <t>2014-36</t>
+  </si>
+  <si>
+    <t>2014-37</t>
+  </si>
+  <si>
+    <t>2014-38</t>
+  </si>
+  <si>
+    <t>2014-39</t>
+  </si>
+  <si>
+    <t>2014-40</t>
+  </si>
+  <si>
+    <t>2014-41</t>
+  </si>
+  <si>
+    <t>2014-42</t>
+  </si>
+  <si>
+    <t>2014-43</t>
+  </si>
+  <si>
+    <t>2014-44</t>
+  </si>
+  <si>
+    <t>2014-45</t>
+  </si>
+  <si>
+    <t>2014-46</t>
+  </si>
+  <si>
+    <t>2014-47</t>
+  </si>
+  <si>
+    <t>2014-48</t>
+  </si>
+  <si>
+    <t>2014-49</t>
+  </si>
+  <si>
+    <t>2014-50</t>
+  </si>
+  <si>
+    <t>2014-51</t>
+  </si>
+  <si>
+    <t>2014-52</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2015-13</t>
+  </si>
+  <si>
+    <t>2015-14</t>
+  </si>
+  <si>
+    <t>2015-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2015-17</t>
+  </si>
+  <si>
+    <t>2015-18</t>
+  </si>
+  <si>
+    <t>2015-19</t>
+  </si>
+  <si>
+    <t>2015-20</t>
+  </si>
+  <si>
+    <t>2015-21</t>
+  </si>
+  <si>
+    <t>2015-22</t>
+  </si>
+  <si>
+    <t>2015-23</t>
+  </si>
+  <si>
+    <t>2015-24</t>
+  </si>
+  <si>
+    <t>2015-25</t>
+  </si>
+  <si>
+    <t>2015-26</t>
+  </si>
+  <si>
+    <t>2015-27</t>
+  </si>
+  <si>
+    <t>2015-28</t>
+  </si>
+  <si>
+    <t>2015-29</t>
+  </si>
+  <si>
+    <t>2015-30</t>
+  </si>
+  <si>
+    <t>2015-31</t>
+  </si>
+  <si>
+    <t>2015-32</t>
+  </si>
+  <si>
+    <t>2015-33</t>
+  </si>
+  <si>
+    <t>2015-34</t>
+  </si>
+  <si>
+    <t>2015-35</t>
+  </si>
+  <si>
+    <t>2015-36</t>
+  </si>
+  <si>
+    <t>2015-37</t>
+  </si>
+  <si>
+    <t>2015-38</t>
+  </si>
+  <si>
+    <t>2015-39</t>
+  </si>
+  <si>
+    <t>2015-40</t>
+  </si>
+  <si>
+    <t>2015-41</t>
+  </si>
+  <si>
+    <t>2015-42</t>
+  </si>
+  <si>
+    <t>2015-43</t>
+  </si>
+  <si>
+    <t>2015-44</t>
+  </si>
+  <si>
+    <t>2015-45</t>
+  </si>
+  <si>
+    <t>2015-46</t>
+  </si>
+  <si>
+    <t>2015-47</t>
+  </si>
+  <si>
+    <t>2015-48</t>
+  </si>
+  <si>
+    <t>2015-49</t>
+  </si>
+  <si>
+    <t>2015-50</t>
+  </si>
+  <si>
+    <t>2015-51</t>
+  </si>
+  <si>
+    <t>2015-52</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2016-13</t>
+  </si>
+  <si>
+    <t>2016-14</t>
+  </si>
+  <si>
+    <t>2016-15</t>
+  </si>
+  <si>
+    <t>2016-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2016-18</t>
+  </si>
+  <si>
+    <t>2016-19</t>
+  </si>
+  <si>
+    <t>2016-20</t>
+  </si>
+  <si>
+    <t>2016-21</t>
+  </si>
+  <si>
+    <t>2016-22</t>
+  </si>
+  <si>
+    <t>2016-23</t>
+  </si>
+  <si>
+    <t>2016-24</t>
+  </si>
+  <si>
+    <t>2016-25</t>
+  </si>
+  <si>
+    <t>2016-26</t>
+  </si>
+  <si>
+    <t>2016-27</t>
+  </si>
+  <si>
+    <t>2016-28</t>
+  </si>
+  <si>
+    <t>2016-29</t>
+  </si>
+  <si>
+    <t>2016-30</t>
+  </si>
+  <si>
+    <t>2016-31</t>
+  </si>
+  <si>
+    <t>2016-32</t>
+  </si>
+  <si>
+    <t>2016-33</t>
+  </si>
+  <si>
+    <t>2016-34</t>
+  </si>
+  <si>
+    <t>2016-35</t>
+  </si>
+  <si>
+    <t>2016-36</t>
+  </si>
+  <si>
+    <t>2016-37</t>
+  </si>
+  <si>
+    <t>2016-38</t>
+  </si>
+  <si>
+    <t>2016-39</t>
+  </si>
+  <si>
+    <t>2016-40</t>
+  </si>
+  <si>
+    <t>2016-41</t>
+  </si>
+  <si>
+    <t>2016-42</t>
+  </si>
+  <si>
+    <t>2016-43</t>
+  </si>
+  <si>
+    <t>2016-44</t>
+  </si>
+  <si>
+    <t>2016-45</t>
+  </si>
+  <si>
+    <t>2016-46</t>
+  </si>
+  <si>
+    <t>2016-47</t>
+  </si>
+  <si>
+    <t>2016-48</t>
+  </si>
+  <si>
+    <t>2016-49</t>
+  </si>
+  <si>
+    <t>2016-50</t>
+  </si>
+  <si>
+    <t>2016-51</t>
+  </si>
+  <si>
+    <t>2016-52</t>
+  </si>
+  <si>
+    <t>2016-53</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Number of Lethal accidents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -778,7 +760,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -786,45 +768,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -883,15 +837,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -900,26 +872,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -929,10 +901,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -950,16 +924,29 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>job1!$A$1:$A$236</c:f>
+              <c:f>'job1'!$A$2:$A$237</c:f>
               <c:strCache>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
@@ -1675,7 +1662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>job1!$B$1:$B$236</c:f>
+              <c:f>'job1'!$B$2:$B$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
@@ -2391,13 +2378,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="75084865"/>
-        <c:axId val="95686114"/>
+        <c:axId val="397413160"/>
+        <c:axId val="397413552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75084865"/>
+        <c:axId val="397413160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,26 +2404,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -2439,6 +2433,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2448,36 +2443,39 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95686114"/>
+        <c:crossAx val="397413552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95686114"/>
+        <c:axId val="397413552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2485,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2499,35 +2497,36 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t># of accidents</a:t>
+                  <a:t>Number of lethal accidents</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2537,29 +2536,31 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75084865"/>
+        <c:crossAx val="397413160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2567,48 +2568,54 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107796</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>39960</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2269440" y="487800"/>
-        <a:ext cx="12396960" cy="5135040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2621,1917 +2628,2182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22">
         <v>4</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26">
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B27">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B29">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B30">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B31">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B32">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B33">
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B34">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B35">
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B36">
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B37">
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B38">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B39">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B41">
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B43">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B45">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B46">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B47">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B49">
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B50">
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B51">
         <v>9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B52">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B53">
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B54">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B55">
         <v>6</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B56">
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B57">
         <v>7</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B58">
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B59">
         <v>4</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B60">
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B61">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B62">
         <v>6</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B63">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B64">
         <v>7</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B65">
         <v>7</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B66">
         <v>9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B67">
         <v>4</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B68">
         <v>6</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B69">
         <v>3</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B70">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B71">
         <v>6</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B72">
         <v>7</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B73">
         <v>9</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B74">
         <v>4</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B75">
         <v>14</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B76">
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B77">
         <v>6</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B78">
         <v>7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B79">
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B80">
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B81">
         <v>7</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B82">
         <v>4</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B83">
         <v>4</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B84">
         <v>3</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B85">
         <v>4</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B86">
         <v>4</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B87">
         <v>3</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B88">
         <v>3</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B89">
         <v>4</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B90">
         <v>2</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B91">
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B92">
         <v>6</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B93">
         <v>9</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B94">
         <v>3</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B95">
         <v>3</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B96">
         <v>4</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B97">
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B98">
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B99">
         <v>6</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B100">
         <v>9</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B101">
         <v>4</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B102">
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B103">
         <v>6</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B104">
         <v>4</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B105">
         <v>3</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B106">
         <v>7</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B107">
         <v>4</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B108">
         <v>6</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B109">
         <v>7</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B110">
         <v>11</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B111">
         <v>2</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B112">
         <v>3</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B113">
         <v>3</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B114">
         <v>9</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B115">
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B116">
         <v>8</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B117">
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B118">
         <v>6</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B119">
         <v>6</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B120">
         <v>4</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B121">
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B122">
         <v>3</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B123">
         <v>7</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B124">
         <v>9</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B125">
         <v>6</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B126">
         <v>4</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B127">
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B128">
         <v>4</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B129">
         <v>3</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B130">
         <v>3</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B131">
         <v>2</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B132">
         <v>4</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B133">
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B134">
         <v>4</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B135">
         <v>3</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B136">
         <v>2</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B137">
         <v>2</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B138">
         <v>3</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B139">
         <v>6</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B140">
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B141">
         <v>3</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B143">
         <v>7</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B144">
         <v>2</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B145">
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B146">
         <v>4</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B147">
         <v>4</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B148">
         <v>3</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B149">
         <v>6</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B150">
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B151">
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B152">
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B153">
         <v>9</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B154">
         <v>6</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B155">
         <v>1</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B156">
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B157">
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B158">
         <v>10</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B159">
         <v>4</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B160">
         <v>4</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B161">
         <v>3</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B162">
         <v>4</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B163">
         <v>6</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B164">
         <v>3</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B165">
         <v>7</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B166">
         <v>4</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B167">
         <v>2</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B168">
         <v>6</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B169">
         <v>3</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B170">
         <v>3</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B171">
         <v>2</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B172">
         <v>7</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B173">
         <v>9</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B174">
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B175">
         <v>2</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B176">
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B177">
         <v>7</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B178">
         <v>4</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B179">
         <v>6</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B180">
         <v>7</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B181">
         <v>7</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B182">
         <v>6</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B183">
         <v>3</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B184">
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B185">
         <v>4</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B186">
         <v>7</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B187">
         <v>4</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B188">
         <v>2</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B189">
         <v>3</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B190">
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B191">
         <v>4</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B192">
         <v>1</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B193">
         <v>7</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B194">
         <v>4</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B195">
         <v>2</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B196">
         <v>4</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B197">
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B198">
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B199">
         <v>3</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B200">
         <v>2</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B201">
         <v>2</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B202">
         <v>6</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B203">
         <v>8</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B204">
         <v>3</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B205">
         <v>3</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B206">
         <v>2</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B207">
         <v>6</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B208">
         <v>8</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B209">
         <v>8</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B210">
         <v>8</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B211">
         <v>6</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B212">
         <v>4</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B213">
         <v>4</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B214">
         <v>1</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B215">
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B216">
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B217">
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B218">
         <v>6</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B219">
         <v>9</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B220">
         <v>3</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B221">
         <v>4</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B222">
         <v>3</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B223">
         <v>6</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B224">
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B225">
         <v>6</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B226">
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B227">
         <v>3</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B228">
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B229">
         <v>3</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B230">
         <v>8</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B231">
         <v>1</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B232">
         <v>2</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B233">
         <v>6</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B234">
         <v>4</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B235">
         <v>2</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B236">
         <v>7</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B237">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
